--- a/medicine/Enfance/David_De_Thuin/David_De_Thuin.xlsx
+++ b/medicine/Enfance/David_De_Thuin/David_De_Thuin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David De Thuin, aussi dit Deth, né le 26 avril 1971, est un auteur de bande dessinée et illustrateur belge.
 </t>
@@ -513,24 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse
-David De Thuin naît le 26 avril 1971[1]. Pendant son enfance, l'auteur qu'il aime le plus est Raymond Macherot[2],[3]. Il fait des études générales en Belgique[4]. Il est musicien et compositeur de chansons pour enfants[5].
-Les débuts
-David De Thuin, dit Deth, commence discrètement sa carrière dans l’ombre de ses grands prédécesseurs, il est remarqué par Christian Darasse, le dessinateur du Gang Mazda et de Tamara, il entre pour quelque temps à l’atelier de Tome et Janry comme assistant[5], puis il collabore avec Frédéric Jannin[5].
-David De Thuin commence sa carrière comme maquettiste lettreur aux éditions Dupuis[4].
-De Thuin fait son entrée dans Spirou no 2897 en 1993[6] et réalise de nombreuses animations rédactionnelles, il crée sa première série de bande dessinée Que sont-ils devenus ?[6] à la vie éphémère sous le pseudonyme de Dethuin avec le scénariste Jean-Louis Janssens (1993-1994) et ne cesse de publier depuis[7]. De 1994 à 1996, il anime, sous le pseudonyme de Deth, la série humoristique L'Envahisseur[8] avec Paul Deliège. En même temps, De Thuin travaille à domicile et produit plusieurs albums de bande dessinée dont le style est très décalé : il aime produire des dessins naïfs légendés par des propos adultes parfois assez cyniques[4]. De 1998 à 2000, il publie Les Zorilles[9] — de drôles de petits animaux imaginaires — sur des scénarios de Corcal dans Spirou et deux albums aux éditions Dupuis (2000-2001). Il crée avec le même scénariste Le Bois des mystères aux éditions Casterman en 2001, puis pour le même éditeur, il abandonne son pseudonyme et crée seul la série pour enfants Arthur Minus dans la collection « Première ligne » (3 tomes, 2002-2004)[10]. Il s'associe à la scénariste Florence Sterpin pour animer Zizi la chipie dans la même collection de 2002 à 2004 (3 albums).
-Zélie et compagnie
-Il entame une longue coopération avec Éric Corbeyran au scénario sur la série Zélie et compagnie d'abord éditée dans la collection « Bayard BD » aux éditions Bayard jusqu'en 2010, puis aux éditions BD Kids à partir de 2011 et finalement à partir de 2021[11] dans la collection « Jeunesse » aux éditions Des ronds dans l'O. C'est sa plus longue série et compte 19 titres en 2022. En 2006, il publie Pas de crotte pour moi — à lire dès quatre ans — sur un scénario de Davide Cali dans la collection « Sapajou » aux éditions Sarbacane. Avec Jean-Michel Thiriet au scénario, il dessine Mon ami l'espace dans le Journal de Mickey[1],[12]. En 2009, il réalise seul une bande dessinée de communication Annemarie au centre de bien-être pour la Fédération générale du travail de Belgique[13]. De 2009 à 2010, sur un scénario de Raoul Cauvin, il dessine le diptyque Coup de foudre composé de La Complainte du taureau-vache[14],[15] et De mâle en pis[16] dans lequel le thème de la transsexualité est abordé. Selon Laurent Turpin[17], rédacteur en chef du site BDzoom et coauteur du BDM Trésors de la bande dessinée : « Le graphisme de David De Thuin ajoute à l’ambiance bon enfant d’un récit qui, sous une apparente légèreté, aborde un thème grave, voire tabou. Cette remarquable histoire, d’une originalité et d’une intelligence de traitement rare, à plusieurs niveaux de lectures et de degrés d’humour, réussit l’exploit d’un avant-gardisme dans le fond, totalement maîtrisé sur la forme, qui lui permet de s’adresser au lectorat le plus large. Chapeau ! ». De 2011 à 2019, il réalise seul six mini-récits dans Spirou avec le personnage récurrent de Scopitone qui occupe la moitié de ceux-ci.
-Autoéditeur
-Il réalise et s'autoédite : Le Roi des bourdons (6 volumes, 2005-2007), La Colère dans l’eau (2007)[18],[7], Pollen (2008) ou Interne (2 numéros, 2010-2011)[19].
-1000 Feuilles
-Début 2014, il signe La Proie[4],[20], un ouvrage hors-norme composé de 1000 pages et 10 000 cases entrée dans la collection « 1000 Feuilles » de Glénat[21]. En 2016, il publie Le Corps à l’ombre[22], un thriller contemporain dans la même collection[21], qui lui vaut le prix littéraire Bulles de Cristal 2017 destiné aux jeunes de 11 à 18 ans[23] puis il participe à l'album collectif en hommage à Gaston Lagaffe[24] en 2017. En 2019, il redessine Le Roi des Bourdons[25] encore dans « 1000 Feuilles »[21] et fait partie de la sélection officielle du Festival d'Angoulême 2020[26]. Ce livre est qualifié de chef-d'œuvre par Charles-Louis Detournay[27], rédacteur en chef du site d'information ActuaBD et précise « L’art de de Thuin est de multiplier les réflexions : Le Roi des bourdons traite bien entendu de notre société, de notre regard sur les "héros", mais il aborde également en profondeur le monde de l’édition. »
-Années 2020
-En 2020, il s'associe au scénariste James pour Meurtre à la compta[28] dans la collection « Pataquès » aux éditions Delcourt. Puis, il dessine La Mort est dans le pré[29] sur un scénario de James dans la collection « Pataquès » aux éditions Delcourt en 2021 et la même année il crée une nouvelle série Waldor[30] — série animalière jeunesse qui fait mijoter l'Heroic fantasy à la sauce franco-belge — dont le premier volume Le Dragon Multiple est publié dans la collection « Tcho ! La Collec... » aux éditions Glénat. En 2022, il fait son entrée à Fluide glacial[31] avec une série scénarisée par Jorge Bernstein intitulée Rapport de stage[32] et conte les rapports entre père et fils en douze saynètes aux éditions Expé ainsi que La Chute d'Hélégard[33], le second tome de Waldor. En 2024, il sort le one shot Autreville aux éditions Sarbacane[34].
-De Thuin participe aux albums collectifs Paroles de sourds (2005), Patate douce T9 (2009) et Umour de poche (2020-2021) et Le Monde d'après (2021).
-Parallèlement De Thuin, illustre des textes de Anne-Sophie Silvestre dans J'aime lire, il publie également dans J'aime lire Max et Zélie et compagnie dans D Lire[12] avec le scénariste Éric Corbeyran ou Kumka l’éléphant[19] de Stéphane Bataillon dans le mensuel Images Doc (2005-2008), il signe encore dans Astrapi[5].
-Dans une interview qu'il accorde à Brigh Barber du site BDzoom en 2014[2], l'auteur nous apprend « J’ai 42 ans, je suis passionné par la bande dessinée, la musique et j’aime la nature : la flore et les animaux sauvages qui grouillent autour de nous. [...] Au quotidien, je suis assez contemplatif. ».
-En termes d'influences, David De Thuin avoue être majoritairement influencé par Marc Wasterlain et Alain Saint-Ogan[3].
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David De Thuin naît le 26 avril 1971. Pendant son enfance, l'auteur qu'il aime le plus est Raymond Macherot,. Il fait des études générales en Belgique. Il est musicien et compositeur de chansons pour enfants.
 </t>
         </is>
       </c>
@@ -556,12 +557,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vie privée</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">David De Thuin réside à Saint-Romain-en-Viennois[4] dans le département du Vaucluse en région Provence-Alpes-Côte d'Azur[21].
+          <t>Les débuts</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David De Thuin, dit Deth, commence discrètement sa carrière dans l’ombre de ses grands prédécesseurs, il est remarqué par Christian Darasse, le dessinateur du Gang Mazda et de Tamara, il entre pour quelque temps à l’atelier de Tome et Janry comme assistant, puis il collabore avec Frédéric Jannin.
+David De Thuin commence sa carrière comme maquettiste lettreur aux éditions Dupuis.
+De Thuin fait son entrée dans Spirou no 2897 en 1993 et réalise de nombreuses animations rédactionnelles, il crée sa première série de bande dessinée Que sont-ils devenus ? à la vie éphémère sous le pseudonyme de Dethuin avec le scénariste Jean-Louis Janssens (1993-1994) et ne cesse de publier depuis. De 1994 à 1996, il anime, sous le pseudonyme de Deth, la série humoristique L'Envahisseur avec Paul Deliège. En même temps, De Thuin travaille à domicile et produit plusieurs albums de bande dessinée dont le style est très décalé : il aime produire des dessins naïfs légendés par des propos adultes parfois assez cyniques. De 1998 à 2000, il publie Les Zorilles — de drôles de petits animaux imaginaires — sur des scénarios de Corcal dans Spirou et deux albums aux éditions Dupuis (2000-2001). Il crée avec le même scénariste Le Bois des mystères aux éditions Casterman en 2001, puis pour le même éditeur, il abandonne son pseudonyme et crée seul la série pour enfants Arthur Minus dans la collection « Première ligne » (3 tomes, 2002-2004). Il s'associe à la scénariste Florence Sterpin pour animer Zizi la chipie dans la même collection de 2002 à 2004 (3 albums).
 </t>
         </is>
       </c>
@@ -587,23 +596,281 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Zélie et compagnie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il entame une longue coopération avec Éric Corbeyran au scénario sur la série Zélie et compagnie d'abord éditée dans la collection « Bayard BD » aux éditions Bayard jusqu'en 2010, puis aux éditions BD Kids à partir de 2011 et finalement à partir de 2021 dans la collection « Jeunesse » aux éditions Des ronds dans l'O. C'est sa plus longue série et compte 19 titres en 2022. En 2006, il publie Pas de crotte pour moi — à lire dès quatre ans — sur un scénario de Davide Cali dans la collection « Sapajou » aux éditions Sarbacane. Avec Jean-Michel Thiriet au scénario, il dessine Mon ami l'espace dans le Journal de Mickey,. En 2009, il réalise seul une bande dessinée de communication Annemarie au centre de bien-être pour la Fédération générale du travail de Belgique. De 2009 à 2010, sur un scénario de Raoul Cauvin, il dessine le diptyque Coup de foudre composé de La Complainte du taureau-vache, et De mâle en pis dans lequel le thème de la transsexualité est abordé. Selon Laurent Turpin, rédacteur en chef du site BDzoom et coauteur du BDM Trésors de la bande dessinée : « Le graphisme de David De Thuin ajoute à l’ambiance bon enfant d’un récit qui, sous une apparente légèreté, aborde un thème grave, voire tabou. Cette remarquable histoire, d’une originalité et d’une intelligence de traitement rare, à plusieurs niveaux de lectures et de degrés d’humour, réussit l’exploit d’un avant-gardisme dans le fond, totalement maîtrisé sur la forme, qui lui permet de s’adresser au lectorat le plus large. Chapeau ! ». De 2011 à 2019, il réalise seul six mini-récits dans Spirou avec le personnage récurrent de Scopitone qui occupe la moitié de ceux-ci.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>David_De_Thuin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_De_Thuin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autoéditeur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réalise et s'autoédite : Le Roi des bourdons (6 volumes, 2005-2007), La Colère dans l’eau (2007) Pollen (2008) ou Interne (2 numéros, 2010-2011).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>David_De_Thuin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_De_Thuin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1000 Feuilles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Début 2014, il signe La Proie un ouvrage hors-norme composé de 1000 pages et 10 000 cases entrée dans la collection « 1000 Feuilles » de Glénat. En 2016, il publie Le Corps à l’ombre, un thriller contemporain dans la même collection, qui lui vaut le prix littéraire Bulles de Cristal 2017 destiné aux jeunes de 11 à 18 ans puis il participe à l'album collectif en hommage à Gaston Lagaffe en 2017. En 2019, il redessine Le Roi des Bourdons encore dans « 1000 Feuilles » et fait partie de la sélection officielle du Festival d'Angoulême 2020. Ce livre est qualifié de chef-d'œuvre par Charles-Louis Detournay, rédacteur en chef du site d'information ActuaBD et précise « L’art de de Thuin est de multiplier les réflexions : Le Roi des bourdons traite bien entendu de notre société, de notre regard sur les "héros", mais il aborde également en profondeur le monde de l’édition. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>David_De_Thuin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_De_Thuin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Années 2020</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2020, il s'associe au scénariste James pour Meurtre à la compta dans la collection « Pataquès » aux éditions Delcourt. Puis, il dessine La Mort est dans le pré sur un scénario de James dans la collection « Pataquès » aux éditions Delcourt en 2021 et la même année il crée une nouvelle série Waldor — série animalière jeunesse qui fait mijoter l'Heroic fantasy à la sauce franco-belge — dont le premier volume Le Dragon Multiple est publié dans la collection « Tcho ! La Collec... » aux éditions Glénat. En 2022, il fait son entrée à Fluide glacial avec une série scénarisée par Jorge Bernstein intitulée Rapport de stage et conte les rapports entre père et fils en douze saynètes aux éditions Expé ainsi que La Chute d'Hélégard, le second tome de Waldor. En 2024, il sort le one shot Autreville aux éditions Sarbacane.
+De Thuin participe aux albums collectifs Paroles de sourds (2005), Patate douce T9 (2009) et Umour de poche (2020-2021) et Le Monde d'après (2021).
+Parallèlement De Thuin, illustre des textes de Anne-Sophie Silvestre dans J'aime lire, il publie également dans J'aime lire Max et Zélie et compagnie dans D Lire avec le scénariste Éric Corbeyran ou Kumka l’éléphant de Stéphane Bataillon dans le mensuel Images Doc (2005-2008), il signe encore dans Astrapi.
+Dans une interview qu'il accorde à Brigh Barber du site BDzoom en 2014, l'auteur nous apprend « J’ai 42 ans, je suis passionné par la bande dessinée, la musique et j’aime la nature : la flore et les animaux sauvages qui grouillent autour de nous. [...] Au quotidien, je suis assez contemplatif. ».
+En termes d'influences, David De Thuin avoue être majoritairement influencé par Marc Wasterlain et Alain Saint-Ogan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>David_De_Thuin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_De_Thuin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David De Thuin réside à Saint-Romain-en-Viennois dans le département du Vaucluse en région Provence-Alpes-Côte d'Azur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>David_De_Thuin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_De_Thuin</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Albums de bande dessinée
-Sous le nom Deth
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sous le nom Deth
 Sous le nom David De Thuin
-Comme coloriste
-Collectifs
-4 Paroles de sourds, Delcourt, coll. « Encrages », Paris, 21 octobre 2005Scénario : collectif - Dessin : collectif dont De Thuin - Couleurs : noir et blanc -  (ISBN 2756000140)
+Comme coloriste</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>David_De_Thuin</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_De_Thuin</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Collectifs</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>4 Paroles de sourds, Delcourt, coll. « Encrages », Paris, 21 octobre 2005Scénario : collectif - Dessin : collectif dont De Thuin - Couleurs : noir et blanc -  (ISBN 2756000140)
 9 Patate douce, Le Potager Moderne, 2009Scénario : collectif - Dessin : collectif dont De Thuin - Couleurs : noir et blanc -  (ISBN 9782953278408)
-La Galerie des Gaffes[24], Dupuis, Marcinelle, 20 octobre 2017Scénario : Collectif - Dessin : Collectif dont De Thuin - Couleurs : quadrichromie -  (ISBN 978-2-8001-7068-8)
+La Galerie des Gaffes, Dupuis, Marcinelle, 20 octobre 2017Scénario : Collectif - Dessin : Collectif dont De Thuin - Couleurs : quadrichromie -  (ISBN 978-2-8001-7068-8)
 Le Monde d'après, Komics Initiative, 11 juin 2021Scénario et couleurs : Zac Deloupy - Dessin : collectif dont De Thuin -  (ISBN 978-2-491-37422-8)
-Titeuforama : 120 variations de Titeuf, Glénat, coll. « Tchô ! La collec... », Grenoble, 3 mai 2023Scénario et couleurs : collectif - Dessin : collectif dont De Thuin -  (ISBN 978-2-344-05844-2)
-Illustrations
-Bienvenue à bord !, Anne-Sophie Silvestre dans J'aime lire no 311 de décembre 2002 (BNF 43915563).
+Titeuforama : 120 variations de Titeuf, Glénat, coll. « Tchô ! La collec... », Grenoble, 3 mai 2023Scénario et couleurs : collectif - Dessin : collectif dont De Thuin -  (ISBN 978-2-344-05844-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>David_De_Thuin</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_De_Thuin</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Bienvenue à bord !, Anne-Sophie Silvestre dans J'aime lire no 311 de décembre 2002 (BNF 43915563).
 100 % excellent ! : les 120 meilleures recettes d'Astrapi,  Bruno Muscat, Delphine Saulière, Anne-Sophie Chilard, Laure Bazantay, illustrations Henri Fellner, avec Catherine Proteaux-Zuber et David De Thuin, Bayard jeunesse, Montrouge, 2003  (ISBN 9782747010313)
 Objectif mariage, Éric Corbeyran, D Lire. no 77  (ISSN 1629-9744), février 2005 (BNF 43917770).
 Kumka l’éléphant, Stéphane Bataillon dans le mensuel Images Doc (2005-2008) 33 pages.
@@ -619,33 +886,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>David_De_Thuin</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/David_De_Thuin</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>David_De_Thuin</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_De_Thuin</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2017 :  prix Bulles de Cristal 2017 pour Le Corps à l’ombre[23].</t>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2017 :  prix Bulles de Cristal 2017 pour Le Corps à l’ombre.</t>
         </is>
       </c>
     </row>
